--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N2">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q2">
-        <v>221.8083365671443</v>
+        <v>0.7636092429961111</v>
       </c>
       <c r="R2">
-        <v>1996.275029104299</v>
+        <v>6.872483186965001</v>
       </c>
       <c r="S2">
-        <v>0.0830073676957786</v>
+        <v>0.000911184268627665</v>
       </c>
       <c r="T2">
-        <v>0.08300736769577864</v>
+        <v>0.0009111842686276652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q3">
-        <v>354.0555721756436</v>
+        <v>6.452656070118111</v>
       </c>
       <c r="R3">
-        <v>3186.500149580793</v>
+        <v>58.073904631063</v>
       </c>
       <c r="S3">
-        <v>0.1324982708908528</v>
+        <v>0.0076996955653487</v>
       </c>
       <c r="T3">
-        <v>0.1324982708908528</v>
+        <v>0.0076996955653487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N4">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q4">
-        <v>1006.413935341806</v>
+        <v>18.72988039059</v>
       </c>
       <c r="R4">
-        <v>9057.725418076252</v>
+        <v>168.56892351531</v>
       </c>
       <c r="S4">
-        <v>0.3766304408481249</v>
+        <v>0.02234961470374752</v>
       </c>
       <c r="T4">
-        <v>0.376630440848125</v>
+        <v>0.02234961470374752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N5">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q5">
-        <v>78.15817780466912</v>
+        <v>14.76388499271889</v>
       </c>
       <c r="R5">
-        <v>703.4236002420221</v>
+        <v>132.87496493447</v>
       </c>
       <c r="S5">
-        <v>0.02924914682591426</v>
+        <v>0.01761715153736298</v>
       </c>
       <c r="T5">
-        <v>0.02924914682591427</v>
+        <v>0.01761715153736298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q6">
         <v>124.7578823731949</v>
@@ -818,10 +818,10 @@
         <v>1122.820941358754</v>
       </c>
       <c r="S6">
-        <v>0.04668816138911732</v>
+        <v>0.1488685749267898</v>
       </c>
       <c r="T6">
-        <v>0.04668816138911733</v>
+        <v>0.1488685749267898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N7">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q7">
-        <v>354.628146628431</v>
+        <v>362.12998015722</v>
       </c>
       <c r="R7">
-        <v>3191.653319655879</v>
+        <v>3259.16982141498</v>
       </c>
       <c r="S7">
-        <v>0.1327125455158344</v>
+        <v>0.4321151742781979</v>
       </c>
       <c r="T7">
-        <v>0.1327125455158344</v>
+        <v>0.4321151742781979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N8">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q8">
-        <v>74.62362507532011</v>
+        <v>9.136493029271668</v>
       </c>
       <c r="R8">
-        <v>671.6126256778811</v>
+        <v>82.22843726344502</v>
       </c>
       <c r="S8">
-        <v>0.02792641061777189</v>
+        <v>0.01090221051546525</v>
       </c>
       <c r="T8">
-        <v>0.02792641061777191</v>
+        <v>0.01090221051546525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q9">
-        <v>119.1159479520519</v>
+        <v>77.20525615117768</v>
       </c>
       <c r="R9">
-        <v>1072.043531568467</v>
+        <v>694.8473053605991</v>
       </c>
       <c r="S9">
-        <v>0.04457677940835249</v>
+        <v>0.0921259341810778</v>
       </c>
       <c r="T9">
-        <v>0.0445767794083525</v>
+        <v>0.09212593418107778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N10">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q10">
-        <v>338.5907732047299</v>
+        <v>224.1007730030701</v>
       </c>
       <c r="R10">
-        <v>3047.316958842569</v>
+        <v>2016.90695702763</v>
       </c>
       <c r="S10">
-        <v>0.1267108768082533</v>
+        <v>0.2674104600233823</v>
       </c>
       <c r="T10">
-        <v>0.1267108768082533</v>
+        <v>0.2674104600233823</v>
       </c>
     </row>
   </sheetData>
